--- a/.catalog/catalog.xlsx
+++ b/.catalog/catalog.xlsx
@@ -70,7 +70,10 @@
 Detalle: con marca y sin marca</t>
   </si>
   <si>
-    <t>nombreimagen.jpg</t>
+    <t>image1.jpg</t>
+  </si>
+  <si>
+    <t>imagen2.jpg</t>
   </si>
   <si>
     <t>001</t>
@@ -489,9 +492,6 @@
   </si>
   <si>
     <t>BLANCO</t>
-  </si>
-  <si>
-    <t>image1.jpg</t>
   </si>
   <si>
     <t>image2.jpg</t>
@@ -1096,7 +1096,7 @@
     <xdr:ext cx="1285875" cy="1619250"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image19.jpg"/>
+        <xdr:cNvPr id="0" name="image18.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1124,7 +1124,7 @@
     <xdr:ext cx="1638300" cy="1609725"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image10.jpg"/>
+        <xdr:cNvPr id="0" name="image6.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1152,7 +1152,7 @@
     <xdr:ext cx="1533525" cy="1666875"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image5.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1208,7 +1208,7 @@
     <xdr:ext cx="1590675" cy="1895475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1236,7 +1236,7 @@
     <xdr:ext cx="1390650" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1320,7 +1320,7 @@
     <xdr:ext cx="1495425" cy="1666875"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png"/>
+        <xdr:cNvPr id="0" name="image14.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1348,7 +1348,7 @@
     <xdr:ext cx="1562100" cy="1552575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image18.png"/>
+        <xdr:cNvPr id="0" name="image17.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1376,7 +1376,7 @@
     <xdr:ext cx="1533525" cy="1895475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1404,7 +1404,7 @@
     <xdr:ext cx="1457325" cy="1885950"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image4.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1432,7 +1432,7 @@
     <xdr:ext cx="1457325" cy="1847850"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image12.jpg"/>
+        <xdr:cNvPr id="0" name="image9.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1460,7 +1460,7 @@
     <xdr:ext cx="933450" cy="1952625"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image14.jpg"/>
+        <xdr:cNvPr id="0" name="image15.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1544,7 +1544,7 @@
     <xdr:ext cx="1314450" cy="1504950"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image23.jpg"/>
+        <xdr:cNvPr id="0" name="image11.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1572,7 +1572,7 @@
     <xdr:ext cx="1828800" cy="1285875"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1600,7 +1600,7 @@
     <xdr:ext cx="1981200" cy="1485900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image15.jpg"/>
+        <xdr:cNvPr id="0" name="image12.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1628,7 +1628,7 @@
     <xdr:ext cx="2057400" cy="1104900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image8.jpg"/>
+        <xdr:cNvPr id="0" name="image16.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1656,7 +1656,7 @@
     <xdr:ext cx="2028825" cy="1390650"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image8.jpg"/>
+        <xdr:cNvPr id="0" name="image16.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1684,7 +1684,7 @@
     <xdr:ext cx="1914525" cy="1381125"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image11.jpg"/>
+        <xdr:cNvPr id="0" name="image10.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1712,7 +1712,7 @@
     <xdr:ext cx="1771650" cy="1381125"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image11.jpg"/>
+        <xdr:cNvPr id="0" name="image10.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1740,7 +1740,7 @@
     <xdr:ext cx="2019300" cy="1400175"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image24.png"/>
+        <xdr:cNvPr id="0" name="image19.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1768,7 +1768,7 @@
     <xdr:ext cx="990600" cy="1447800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image24.png"/>
+        <xdr:cNvPr id="0" name="image19.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1796,7 +1796,7 @@
     <xdr:ext cx="1752600" cy="1857375"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image9.jpg"/>
+        <xdr:cNvPr id="0" name="image22.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1824,7 +1824,7 @@
     <xdr:ext cx="1524000" cy="1905000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image17.jpg"/>
+        <xdr:cNvPr id="0" name="image8.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1852,7 +1852,7 @@
     <xdr:ext cx="1571625" cy="1733550"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image9.jpg"/>
+        <xdr:cNvPr id="0" name="image22.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1880,7 +1880,7 @@
     <xdr:ext cx="1885950" cy="1733550"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image9.jpg"/>
+        <xdr:cNvPr id="0" name="image22.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1908,7 +1908,7 @@
     <xdr:ext cx="1619250" cy="1076325"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image9.jpg"/>
+        <xdr:cNvPr id="0" name="image22.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1936,7 +1936,7 @@
     <xdr:ext cx="2152650" cy="1704975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image9.jpg"/>
+        <xdr:cNvPr id="0" name="image22.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1964,7 +1964,7 @@
     <xdr:ext cx="1323975" cy="1790700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image17.jpg"/>
+        <xdr:cNvPr id="0" name="image8.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1992,7 +1992,7 @@
     <xdr:ext cx="1800225" cy="1790700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image17.jpg"/>
+        <xdr:cNvPr id="0" name="image8.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2020,7 +2020,7 @@
     <xdr:ext cx="1466850" cy="1247775"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image17.jpg"/>
+        <xdr:cNvPr id="0" name="image8.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2048,7 +2048,7 @@
     <xdr:ext cx="1038225" cy="1447800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image20.jpg"/>
+        <xdr:cNvPr id="0" name="image23.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2076,7 +2076,7 @@
     <xdr:ext cx="1066800" cy="1476375"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image20.jpg"/>
+        <xdr:cNvPr id="0" name="image23.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2104,7 +2104,7 @@
     <xdr:ext cx="2057400" cy="1066800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image20.jpg"/>
+        <xdr:cNvPr id="0" name="image23.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2132,7 +2132,7 @@
     <xdr:ext cx="1009650" cy="1428750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image20.jpg"/>
+        <xdr:cNvPr id="0" name="image23.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2160,7 +2160,7 @@
     <xdr:ext cx="1304925" cy="1704975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image16.jpg"/>
+        <xdr:cNvPr id="0" name="image20.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2188,7 +2188,7 @@
     <xdr:ext cx="1371600" cy="1704975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image16.jpg"/>
+        <xdr:cNvPr id="0" name="image20.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2216,7 +2216,7 @@
     <xdr:ext cx="1285875" cy="1828800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image16.jpg"/>
+        <xdr:cNvPr id="0" name="image20.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2244,7 +2244,7 @@
     <xdr:ext cx="1343025" cy="1790700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image16.jpg"/>
+        <xdr:cNvPr id="0" name="image20.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2272,7 +2272,7 @@
     <xdr:ext cx="1362075" cy="1762125"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image16.jpg"/>
+        <xdr:cNvPr id="0" name="image20.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2300,7 +2300,7 @@
     <xdr:ext cx="1104900" cy="1771650"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image16.jpg"/>
+        <xdr:cNvPr id="0" name="image20.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2328,7 +2328,7 @@
     <xdr:ext cx="1162050" cy="1733550"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image16.jpg"/>
+        <xdr:cNvPr id="0" name="image20.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2356,7 +2356,7 @@
     <xdr:ext cx="1876425" cy="1657350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image22.jpg"/>
+        <xdr:cNvPr id="0" name="image24.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2384,7 +2384,7 @@
     <xdr:ext cx="1362075" cy="1647825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image22.jpg"/>
+        <xdr:cNvPr id="0" name="image24.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2524,7 +2524,7 @@
     <xdr:ext cx="1466850" cy="1647825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image28.jpg"/>
+        <xdr:cNvPr id="0" name="image25.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2552,7 +2552,7 @@
     <xdr:ext cx="1581150" cy="1647825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image28.jpg"/>
+        <xdr:cNvPr id="0" name="image25.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2580,7 +2580,7 @@
     <xdr:ext cx="1400175" cy="1457325"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image36.jpg"/>
+        <xdr:cNvPr id="0" name="image32.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2608,7 +2608,7 @@
     <xdr:ext cx="1543050" cy="1419225"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image36.jpg"/>
+        <xdr:cNvPr id="0" name="image32.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2636,7 +2636,7 @@
     <xdr:ext cx="1476375" cy="1809750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image26.png"/>
+        <xdr:cNvPr id="0" name="image31.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2664,7 +2664,7 @@
     <xdr:ext cx="1495425" cy="1809750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image32.png"/>
+        <xdr:cNvPr id="0" name="image37.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2692,7 +2692,7 @@
     <xdr:ext cx="1447800" cy="1809750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image29.png"/>
+        <xdr:cNvPr id="0" name="image30.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2720,7 +2720,7 @@
     <xdr:ext cx="1466850" cy="1790700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image27.png"/>
+        <xdr:cNvPr id="0" name="image36.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2748,7 +2748,7 @@
     <xdr:ext cx="1485900" cy="1790700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image35.png"/>
+        <xdr:cNvPr id="0" name="image29.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2776,7 +2776,7 @@
     <xdr:ext cx="1438275" cy="1790700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image25.png"/>
+        <xdr:cNvPr id="0" name="image35.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2804,7 +2804,7 @@
     <xdr:ext cx="1419225" cy="1790700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image37.png"/>
+        <xdr:cNvPr id="0" name="image28.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2832,7 +2832,7 @@
     <xdr:ext cx="2514600" cy="1038225"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2860,7 +2860,7 @@
     <xdr:ext cx="2514600" cy="1362075"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image33.jpg"/>
+        <xdr:cNvPr id="0" name="image27.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2888,7 +2888,7 @@
     <xdr:ext cx="2276475" cy="1228725"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image33.jpg"/>
+        <xdr:cNvPr id="0" name="image27.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2944,7 +2944,7 @@
     <xdr:ext cx="2514600" cy="933450"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image31.jpg"/>
+        <xdr:cNvPr id="0" name="image26.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2972,7 +2972,7 @@
     <xdr:ext cx="2514600" cy="933450"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image31.jpg"/>
+        <xdr:cNvPr id="0" name="image26.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3000,7 +3000,7 @@
     <xdr:ext cx="2514600" cy="933450"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image31.jpg"/>
+        <xdr:cNvPr id="0" name="image26.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3028,7 +3028,7 @@
     <xdr:ext cx="2514600" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image12.jpg"/>
+        <xdr:cNvPr id="0" name="image9.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3056,7 +3056,7 @@
     <xdr:ext cx="2514600" cy="914400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image14.jpg"/>
+        <xdr:cNvPr id="0" name="image15.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3084,7 +3084,7 @@
     <xdr:ext cx="2276475" cy="828675"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image14.jpg"/>
+        <xdr:cNvPr id="0" name="image15.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3112,7 +3112,7 @@
     <xdr:ext cx="2505075" cy="904875"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image14.jpg"/>
+        <xdr:cNvPr id="0" name="image15.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3140,7 +3140,7 @@
     <xdr:ext cx="2514600" cy="1076325"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image30.jpg"/>
+        <xdr:cNvPr id="0" name="image33.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3168,7 +3168,7 @@
     <xdr:ext cx="2514600" cy="1076325"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image30.jpg"/>
+        <xdr:cNvPr id="0" name="image33.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3492,7 +3492,7 @@
         <v>18</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" s="7">
         <v>0.0</v>
@@ -3501,16 +3501,16 @@
         <v>2000.0</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
@@ -3535,13 +3535,13 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -3556,16 +3556,16 @@
         <v>2000.0</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
@@ -3590,13 +3590,13 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -3611,16 +3611,16 @@
         <v>2000.0</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
@@ -3645,13 +3645,13 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -3666,16 +3666,16 @@
         <v>2000.0</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
@@ -3700,13 +3700,13 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -3721,16 +3721,16 @@
         <v>2000.0</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
@@ -3755,13 +3755,13 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -3776,16 +3776,16 @@
         <v>2000.0</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
@@ -3810,13 +3810,13 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -3831,16 +3831,16 @@
         <v>2000.0</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
@@ -3865,13 +3865,13 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -3886,16 +3886,16 @@
         <v>2000.0</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N9" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
@@ -3920,13 +3920,13 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -3941,16 +3941,16 @@
         <v>2000.0</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N10" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
@@ -3975,13 +3975,13 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -3996,16 +3996,16 @@
         <v>2000.0</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
@@ -4030,13 +4030,13 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -4051,16 +4051,16 @@
         <v>2000.0</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N12" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
@@ -4085,13 +4085,13 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -4106,16 +4106,16 @@
         <v>2000.0</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N13" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
@@ -4140,13 +4140,13 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -4161,16 +4161,16 @@
         <v>2000.0</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
@@ -4195,13 +4195,13 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -4216,16 +4216,16 @@
         <v>2000.0</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
@@ -4250,13 +4250,13 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -4271,16 +4271,16 @@
         <v>2000.0</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
@@ -4305,13 +4305,13 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -4326,16 +4326,16 @@
         <v>2000.0</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
@@ -4360,13 +4360,13 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -4381,16 +4381,16 @@
         <v>2000.0</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N18" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
@@ -4415,13 +4415,13 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -4436,16 +4436,16 @@
         <v>2000.0</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N19" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
@@ -4470,13 +4470,13 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -4491,16 +4491,16 @@
         <v>2000.0</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N20" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
@@ -4525,13 +4525,13 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -4546,16 +4546,16 @@
         <v>2000.0</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N21" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
@@ -4580,13 +4580,13 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -4601,16 +4601,16 @@
         <v>2000.0</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N22" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
@@ -12844,7 +12844,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -12881,31 +12881,31 @@
         <v>0</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
@@ -12930,20 +12930,20 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -12976,7 +12976,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D4" s="16">
         <v>2000.0</v>
@@ -12985,7 +12985,7 @@
         <v>0.0</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>150</v>
@@ -13196,10 +13196,10 @@
     </row>
     <row r="9" ht="142.5" customHeight="1">
       <c r="A9" s="22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>165</v>
@@ -13238,7 +13238,7 @@
     </row>
     <row r="10" ht="142.5" customHeight="1">
       <c r="A10" s="22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>166</v>
@@ -13280,7 +13280,7 @@
     </row>
     <row r="11" ht="142.5" customHeight="1">
       <c r="A11" s="22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>168</v>
@@ -13322,7 +13322,7 @@
     </row>
     <row r="12" ht="142.5" customHeight="1">
       <c r="A12" s="22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>170</v>
@@ -13364,7 +13364,7 @@
     </row>
     <row r="13" ht="142.5" customHeight="1">
       <c r="A13" s="22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="22" t="s">
         <v>172</v>
@@ -13406,7 +13406,7 @@
     </row>
     <row r="14" ht="142.5" customHeight="1">
       <c r="A14" s="22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="22" t="s">
         <v>174</v>
@@ -13450,13 +13450,13 @@
     </row>
     <row r="15" ht="141.0" customHeight="1">
       <c r="A15" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D15" s="16">
         <v>2000.0</v>
@@ -13492,7 +13492,7 @@
     </row>
     <row r="16" ht="141.0" customHeight="1">
       <c r="A16" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>176</v>
@@ -13534,7 +13534,7 @@
     </row>
     <row r="17" ht="141.0" customHeight="1">
       <c r="A17" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>177</v>
@@ -13576,7 +13576,7 @@
     </row>
     <row r="18" ht="141.0" customHeight="1">
       <c r="A18" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="16" t="s">
         <v>178</v>
@@ -13618,7 +13618,7 @@
     </row>
     <row r="19" ht="141.0" customHeight="1">
       <c r="A19" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>180</v>
@@ -13660,7 +13660,7 @@
     </row>
     <row r="20" ht="141.0" customHeight="1">
       <c r="A20" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" s="16" t="s">
         <v>182</v>
@@ -13702,10 +13702,10 @@
     </row>
     <row r="21" ht="157.5" customHeight="1">
       <c r="A21" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>184</v>
@@ -13744,7 +13744,7 @@
     </row>
     <row r="22" ht="157.5" customHeight="1">
       <c r="A22" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" s="16" t="s">
         <v>185</v>
@@ -13786,7 +13786,7 @@
     </row>
     <row r="23" ht="157.5" customHeight="1">
       <c r="A23" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>187</v>
@@ -13828,7 +13828,7 @@
     </row>
     <row r="24" ht="157.5" customHeight="1">
       <c r="A24" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24" s="16" t="s">
         <v>189</v>
@@ -13870,10 +13870,10 @@
     </row>
     <row r="25" ht="157.5" customHeight="1">
       <c r="A25" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>191</v>
@@ -13912,7 +13912,7 @@
     </row>
     <row r="26" ht="157.5" customHeight="1">
       <c r="A26" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>192</v>
@@ -13954,10 +13954,10 @@
     </row>
     <row r="27" ht="157.5" customHeight="1">
       <c r="A27" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>194</v>
@@ -13996,10 +13996,10 @@
     </row>
     <row r="28" ht="157.5" customHeight="1">
       <c r="A28" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C28" s="18" t="s">
         <v>195</v>
@@ -14038,7 +14038,7 @@
     </row>
     <row r="29" ht="157.5" customHeight="1">
       <c r="A29" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B29" s="16" t="s">
         <v>196</v>
@@ -14080,10 +14080,10 @@
     </row>
     <row r="30" ht="157.5" customHeight="1">
       <c r="A30" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>198</v>
@@ -14122,7 +14122,7 @@
     </row>
     <row r="31" ht="157.5" customHeight="1">
       <c r="A31" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B31" s="16" t="s">
         <v>199</v>
@@ -14164,7 +14164,7 @@
     </row>
     <row r="32" ht="157.5" customHeight="1">
       <c r="A32" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B32" s="16" t="s">
         <v>200</v>
@@ -14206,7 +14206,7 @@
     </row>
     <row r="33" ht="157.5" customHeight="1">
       <c r="A33" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B33" s="16" t="s">
         <v>201</v>
@@ -14248,10 +14248,10 @@
     </row>
     <row r="34" ht="127.5" customHeight="1">
       <c r="A34" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C34" s="25" t="s">
         <v>190</v>
@@ -14290,10 +14290,10 @@
     </row>
     <row r="35" ht="139.5" customHeight="1">
       <c r="A35" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C35" s="25" t="s">
         <v>202</v>
@@ -14332,7 +14332,7 @@
     </row>
     <row r="36" ht="139.5" customHeight="1">
       <c r="A36" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B36" s="20" t="s">
         <v>203</v>
@@ -14374,7 +14374,7 @@
     </row>
     <row r="37" ht="139.5" customHeight="1">
       <c r="A37" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B37" s="20" t="s">
         <v>205</v>
@@ -14416,7 +14416,7 @@
     </row>
     <row r="38" ht="141.75" customHeight="1">
       <c r="A38" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B38" s="20" t="s">
         <v>207</v>
@@ -14458,7 +14458,7 @@
     </row>
     <row r="39" ht="141.75" customHeight="1">
       <c r="A39" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B39" s="20" t="s">
         <v>209</v>
@@ -14500,7 +14500,7 @@
     </row>
     <row r="40" ht="125.25" customHeight="1">
       <c r="A40" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B40" s="20" t="s">
         <v>211</v>
@@ -14542,10 +14542,10 @@
     </row>
     <row r="41" ht="121.5" customHeight="1">
       <c r="A41" s="16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C41" s="18" t="s">
         <v>212</v>
@@ -14584,7 +14584,7 @@
     </row>
     <row r="42" ht="121.5" customHeight="1">
       <c r="A42" s="16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B42" s="20" t="s">
         <v>213</v>
@@ -14626,7 +14626,7 @@
     </row>
     <row r="43" ht="121.5" customHeight="1">
       <c r="A43" s="16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B43" s="20" t="s">
         <v>214</v>
@@ -14668,10 +14668,10 @@
     </row>
     <row r="44" ht="121.5" customHeight="1">
       <c r="A44" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C44" s="18"/>
       <c r="D44" s="16">
@@ -14710,10 +14710,10 @@
     </row>
     <row r="45" ht="174.0" customHeight="1">
       <c r="A45" s="16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C45" s="18" t="s">
         <v>215</v>
@@ -14752,7 +14752,7 @@
     </row>
     <row r="46" ht="158.25" customHeight="1">
       <c r="A46" s="16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B46" s="20" t="s">
         <v>216</v>
@@ -14794,7 +14794,7 @@
     </row>
     <row r="47" ht="121.5" customHeight="1">
       <c r="A47" s="16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B47" s="20" t="s">
         <v>218</v>
@@ -14836,7 +14836,7 @@
     </row>
     <row r="48" ht="156.75" customHeight="1">
       <c r="A48" s="16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B48" s="20" t="s">
         <v>220</v>
@@ -14878,7 +14878,7 @@
     </row>
     <row r="49" ht="157.5" customHeight="1">
       <c r="A49" s="16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B49" s="20" t="s">
         <v>222</v>
@@ -14920,7 +14920,7 @@
     </row>
     <row r="50" ht="141.75" customHeight="1">
       <c r="A50" s="16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B50" s="20" t="s">
         <v>224</v>
@@ -14962,7 +14962,7 @@
     </row>
     <row r="51" ht="141.75" customHeight="1">
       <c r="A51" s="16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B51" s="20" t="s">
         <v>226</v>
@@ -15004,10 +15004,10 @@
     </row>
     <row r="52" ht="159.75" customHeight="1">
       <c r="A52" s="16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C52" s="18" t="s">
         <v>212</v>
@@ -15046,7 +15046,7 @@
     </row>
     <row r="53" ht="134.25" customHeight="1">
       <c r="A53" s="16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B53" s="20" t="s">
         <v>228</v>
@@ -15088,10 +15088,10 @@
     </row>
     <row r="54" ht="141.75" customHeight="1">
       <c r="A54" s="16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C54" s="18" t="s">
         <v>198</v>
@@ -15130,7 +15130,7 @@
     </row>
     <row r="55" ht="155.25" customHeight="1">
       <c r="A55" s="16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B55" s="20" t="s">
         <v>229</v>
@@ -15172,10 +15172,10 @@
     </row>
     <row r="56" ht="156.75" customHeight="1">
       <c r="A56" s="16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C56" s="18" t="s">
         <v>212</v>
@@ -15214,7 +15214,7 @@
     </row>
     <row r="57" ht="139.5" customHeight="1">
       <c r="A57" s="16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B57" s="20" t="s">
         <v>231</v>
@@ -15256,10 +15256,10 @@
     </row>
     <row r="58" ht="126.0" customHeight="1">
       <c r="A58" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C58" s="18" t="s">
         <v>212</v>
@@ -15298,7 +15298,7 @@
     </row>
     <row r="59" ht="127.5" customHeight="1">
       <c r="A59" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B59" s="20" t="s">
         <v>232</v>
@@ -15340,10 +15340,10 @@
     </row>
     <row r="60" ht="124.5" customHeight="1">
       <c r="A60" s="16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C60" s="18"/>
       <c r="D60" s="16">

--- a/.catalog/catalog.xlsx
+++ b/.catalog/catalog.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olga Cecilia\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\OMV PUBLICIDAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{358AA406-A9D4-4078-8910-B86C49DDFA35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="producto" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="391">
   <si>
     <t>codigo</t>
   </si>
@@ -1217,11 +1216,95 @@
   <si>
     <t>Vestido motociclista</t>
   </si>
+  <si>
+    <t>OMV024</t>
+  </si>
+  <si>
+    <t>NECESER PARA VIAJE</t>
+  </si>
+  <si>
+    <t>OMV025</t>
+  </si>
+  <si>
+    <t>OMV026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANCHETA </t>
+  </si>
+  <si>
+    <t>100% cuero</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Medidas  Alto 13 cms. Largo 19 cms. Ancho 6.5 cms</t>
+  </si>
+  <si>
+    <t>Descripción:  Producción de la industria nacional con los más altos standares de calidad. Material cuero 100%.  Color café o negro.  Logo repujado personalizado.</t>
+  </si>
+  <si>
+    <t>cosmetiquera para viaje</t>
+  </si>
+  <si>
+    <t>Neceser de viaje</t>
+  </si>
+  <si>
+    <t>BILLETERAS PARA HOMBRE</t>
+  </si>
+  <si>
+    <t>OMV027</t>
+  </si>
+  <si>
+    <t>BILLETERAS PARA MUJER</t>
+  </si>
+  <si>
+    <t>cuero 100%</t>
+  </si>
+  <si>
+    <t>10x12 cms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descripción:  Billeteras de cuero. Diferentes estilos y colores,  logo personalizado repujado: $ 60.000 . Mínimo 12 unidades. </t>
+  </si>
+  <si>
+    <t>Logo repujado</t>
+  </si>
+  <si>
+    <t>billetera para hombre</t>
+  </si>
+  <si>
+    <t>billetera en cuero para hombre</t>
+  </si>
+  <si>
+    <t>18x9 cms</t>
+  </si>
+  <si>
+    <t>billetera en cuero para mujer</t>
+  </si>
+  <si>
+    <t>Descripción: billeteras de cuero. Diferentes estilos y colores, logo personalizado repujado.</t>
+  </si>
+  <si>
+    <t>Descripción: Ancheta en caja de madera natural ideal para regalos especiales, se puede armar con variedad de productos seleccionados de la mejor calidad . Diferentes tamaños.</t>
+  </si>
+  <si>
+    <t>caja en madera y cartón rigido</t>
+  </si>
+  <si>
+    <t>diferentes dimensiones</t>
+  </si>
+  <si>
+    <t>marca laser</t>
+  </si>
+  <si>
+    <t>ancheta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ancheta </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1774,14 +1857,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AI1000"/>
+  <dimension ref="A1:AI1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" topLeftCell="F19" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3391,22 +3474,46 @@
       <c r="AH24" s="5"/>
       <c r="AI24" s="5"/>
     </row>
-    <row r="25" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
+    <row r="25" spans="1:35" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="36" t="s">
+        <v>363</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>364</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>370</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>368</v>
+      </c>
+      <c r="E25" s="36" t="s">
+        <v>369</v>
+      </c>
+      <c r="F25" s="36" t="s">
+        <v>379</v>
+      </c>
+      <c r="G25" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36">
+        <v>100</v>
+      </c>
+      <c r="L25" s="36">
+        <v>16</v>
+      </c>
+      <c r="M25" s="36" t="s">
+        <v>372</v>
+      </c>
+      <c r="N25" s="36">
+        <v>1601</v>
+      </c>
+      <c r="O25" s="36" t="s">
+        <v>371</v>
+      </c>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
@@ -3429,21 +3536,47 @@
       <c r="AI25" s="5"/>
     </row>
     <row r="26" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
+      <c r="A26" s="36" t="s">
+        <v>365</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>373</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>378</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>376</v>
+      </c>
+      <c r="E26" s="36" t="s">
+        <v>377</v>
+      </c>
+      <c r="F26" s="36" t="s">
+        <v>379</v>
+      </c>
+      <c r="G26" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36">
+        <v>60000</v>
+      </c>
+      <c r="K26" s="36">
+        <v>200</v>
+      </c>
+      <c r="L26" s="36">
+        <v>17</v>
+      </c>
+      <c r="M26" s="36" t="s">
+        <v>380</v>
+      </c>
+      <c r="N26" s="36">
+        <v>1602</v>
+      </c>
+      <c r="O26" s="36" t="s">
+        <v>381</v>
+      </c>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
@@ -3466,21 +3599,45 @@
       <c r="AI26" s="5"/>
     </row>
     <row r="27" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
+      <c r="A27" s="36" t="s">
+        <v>366</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>376</v>
+      </c>
+      <c r="E27" s="36" t="s">
+        <v>382</v>
+      </c>
+      <c r="F27" s="36" t="s">
+        <v>379</v>
+      </c>
+      <c r="G27" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36">
+        <v>85000</v>
+      </c>
+      <c r="K27" s="36">
+        <v>200</v>
+      </c>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="N27" s="36">
+        <v>1603</v>
+      </c>
+      <c r="O27" s="36" t="s">
+        <v>383</v>
+      </c>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
@@ -3503,21 +3660,45 @@
       <c r="AI27" s="5"/>
     </row>
     <row r="28" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
+      <c r="A28" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>367</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>385</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>386</v>
+      </c>
+      <c r="E28" s="36" t="s">
+        <v>387</v>
+      </c>
+      <c r="F28" s="36" t="s">
+        <v>388</v>
+      </c>
+      <c r="G28" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36">
+        <v>70000</v>
+      </c>
+      <c r="K28" s="36">
+        <v>500</v>
+      </c>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36" t="s">
+        <v>389</v>
+      </c>
+      <c r="N28" s="36">
+        <v>1700</v>
+      </c>
+      <c r="O28" s="36" t="s">
+        <v>390</v>
+      </c>
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
@@ -10717,7 +10898,43 @@
       <c r="AH222" s="5"/>
       <c r="AI222" s="5"/>
     </row>
-    <row r="223" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A223" s="5"/>
+      <c r="B223" s="5"/>
+      <c r="C223" s="5"/>
+      <c r="D223" s="5"/>
+      <c r="E223" s="5"/>
+      <c r="F223" s="5"/>
+      <c r="G223" s="5"/>
+      <c r="H223" s="5"/>
+      <c r="I223" s="5"/>
+      <c r="J223" s="5"/>
+      <c r="K223" s="5"/>
+      <c r="L223" s="5"/>
+      <c r="M223" s="5"/>
+      <c r="N223" s="5"/>
+      <c r="O223" s="5"/>
+      <c r="P223" s="5"/>
+      <c r="Q223" s="5"/>
+      <c r="R223" s="5"/>
+      <c r="S223" s="5"/>
+      <c r="T223" s="5"/>
+      <c r="U223" s="5"/>
+      <c r="V223" s="5"/>
+      <c r="W223" s="5"/>
+      <c r="X223" s="5"/>
+      <c r="Y223" s="5"/>
+      <c r="Z223" s="5"/>
+      <c r="AA223" s="5"/>
+      <c r="AB223" s="5"/>
+      <c r="AC223" s="5"/>
+      <c r="AD223" s="5"/>
+      <c r="AE223" s="5"/>
+      <c r="AF223" s="5"/>
+      <c r="AG223" s="5"/>
+      <c r="AH223" s="5"/>
+      <c r="AI223" s="5"/>
+    </row>
     <row r="224" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11495,6 +11712,7 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -11502,13 +11720,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AD1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A40" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
